--- a/biology/Botanique/Eriotheca/Eriotheca.xlsx
+++ b/biology/Botanique/Eriotheca/Eriotheca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriotheca est un genre de plantes à fleurs de la famille des Bombacaceae, selon la classification classique, ou de celle des Malvaceae, selon la classification phylogénétique.
 Eriotheca peruviana est une espèce menacée selon les standards UICN.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eriotheca réunit des espèces d'arbres à écorce dépourvue d'épines (au contraire du genre Ceiba) hauts 2 à 40 m, à feuillage typiquement caduques. Les feuilles sont composées palmées et les stipules rapidement caduques. Les 3-9 folioles sont articulés à l'apex de pétiole, avec ou sans pétiolules, à marges entières ou dentés, glabres ou tomenteuses. Les fleurs relativement petites pour la famille, sont actinomorphe, solitaire à l'aisselle des feuilles, ou en cymes terminales, généralement sur des branches après la chute des feuilles. Les pédicelles portent 3-bractéoles, parfois rapidement caduques. Le calice est cupulé, campanulé ou en forme d'entonnoir, tronqué, ou irrégulièrement lobé à l'apex, coriace, persistant et généralement accrescent, glabre ou autre. Les pétales, charnus, blancs ou blanc-jaunâtre, généralement vélutineux ou tomenteux, sont de forme linéaire, obovale ou spatulée, adnés à la base du tube staminal, et caduques après la floraison. On compte (18-)22-155 étamines, à filets fusionnés en tube sur 20 à 80% de leur longueur (avec de nombreuses parties libres à l'apex), et qui ne sont pas regroupées en fascicules secondaires au-dessus du tube. Les anthères sont réniformes, avec une fente longitudinale extrorses. L'ovaire supère comprend 5 loges qui contiennent de nombreux ovules. Le style est indivisés ou à 5 lobes. Le fruit est une capsule loculicide à 5 valves, coriace ou subligneuse, remplie de poils soyeux (Kapok) qui entourent les graines et servent à leurs dispersion par anémochorie. Les graines sont nombreuses, petites, et plus ou moins pyriforme ou de forme anguleuse à subglobuleuse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eriotheca réunit des espèces d'arbres à écorce dépourvue d'épines (au contraire du genre Ceiba) hauts 2 à 40 m, à feuillage typiquement caduques. Les feuilles sont composées palmées et les stipules rapidement caduques. Les 3-9 folioles sont articulés à l'apex de pétiole, avec ou sans pétiolules, à marges entières ou dentés, glabres ou tomenteuses. Les fleurs relativement petites pour la famille, sont actinomorphe, solitaire à l'aisselle des feuilles, ou en cymes terminales, généralement sur des branches après la chute des feuilles. Les pédicelles portent 3-bractéoles, parfois rapidement caduques. Le calice est cupulé, campanulé ou en forme d'entonnoir, tronqué, ou irrégulièrement lobé à l'apex, coriace, persistant et généralement accrescent, glabre ou autre. Les pétales, charnus, blancs ou blanc-jaunâtre, généralement vélutineux ou tomenteux, sont de forme linéaire, obovale ou spatulée, adnés à la base du tube staminal, et caduques après la floraison. On compte (18-)22-155 étamines, à filets fusionnés en tube sur 20 à 80% de leur longueur (avec de nombreuses parties libres à l'apex), et qui ne sont pas regroupées en fascicules secondaires au-dessus du tube. Les anthères sont réniformes, avec une fente longitudinale extrorses. L'ovaire supère comprend 5 loges qui contiennent de nombreux ovules. Le style est indivisés ou à 5 lobes. Le fruit est une capsule loculicide à 5 valves, coriace ou subligneuse, remplie de poils soyeux (Kapok) qui entourent les graines et servent à leurs dispersion par anémochorie. Les graines sont nombreuses, petites, et plus ou moins pyriforme ou de forme anguleuse à subglobuleuse.
 </t>
         </is>
       </c>
@@ -543,10 +557,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List (26/11/2021)[2] :
-Espèces valides
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List (26/11/2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eriotheca</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriotheca</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eriotheca candolleana (K.Schum.) A.Robyns
 Eriotheca crassa (Uittien) A.Robyns
 Eriotheca crenulaticalyx A.Robyns
@@ -570,7 +622,43 @@
 Eriotheca squamigera (Cuatrec.) Fern.Alonso
 Eriotheca surinamensis (Uittien) A.Robyns
 Eriotheca vargasii (Cuatrec.) A.Robyns
-Noms non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eriotheca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriotheca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms non résolus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eriotheca grandiflora A. Robyns
 Eriotheca polyandra A. Robyns
 Eriotheca roseorum (Cuatrec.) A.Robyns
